--- a/KetoGator/Current Patients/TeSt1/DataBases/Data/TeSt1_Anthropometrics_Source.xlsx
+++ b/KetoGator/Current Patients/TeSt1/DataBases/Data/TeSt1_Anthropometrics_Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\KetoGator\Current Patients\TeSt1\DataBases\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER\Robert\Documents\GitHub\KetoGator\Current Patients\TeSt1\DataBases\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656426B-DA1F-4CD3-B57A-82CBEE361473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8C6086-BD59-4854-A878-77BED6FEBF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anthropometrics" sheetId="1" r:id="rId1"/>
@@ -445,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
   </cols>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44006</v>
+        <v>43914</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44007</v>
+        <v>43946</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44008</v>
+        <v>43977</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -808,6 +808,20 @@
       </c>
       <c r="U6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44045</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>62.3</v>
       </c>
     </row>
   </sheetData>
